--- a/Classification/Classifcation_Matrix.xlsx
+++ b/Classification/Classifcation_Matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikasshah/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikasshah/Desktop/Lending-Club-DataScience/Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="1080" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,6 +391,12 @@
       <c r="B2">
         <v>0.89300000000000002</v>
       </c>
+      <c r="C2">
+        <v>0.77</v>
+      </c>
+      <c r="D2">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -412,6 +418,12 @@
       </c>
       <c r="B4">
         <v>0.92100000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
